--- a/target/test-classes/TestData/BizliaTestData.xlsx
+++ b/target/test-classes/TestData/BizliaTestData.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CFC3C5-B9A6-415D-9E5B-20072954B576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A967C5-6CC5-402D-BEED-D6D150BF70DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIGNUP" sheetId="1" r:id="rId1"/>
     <sheet name="LOGIN" sheetId="9" r:id="rId2"/>
     <sheet name="COMPANYPROFILE" sheetId="10" r:id="rId3"/>
-    <sheet name="HOME" sheetId="8" r:id="rId4"/>
+    <sheet name="COMPANYPROFILEADDRESS" sheetId="11" r:id="rId4"/>
+    <sheet name="COMPANYSERVICES" sheetId="12" r:id="rId5"/>
+    <sheet name="HOME" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">HOME!$A$1:$BJ$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">HOME!$A$1:$BJ$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>TCName</t>
   </si>
@@ -58,9 +60,6 @@
     <t>TC01_Verification of Browser Compatibility of Home page of the application</t>
   </si>
   <si>
-    <t>TC01_Verification of Browser Compatibility of Home Page of the application</t>
-  </si>
-  <si>
     <t>Verification of Browser Compatibility of Home page of the application</t>
   </si>
   <si>
@@ -157,11 +156,76 @@
     <t>https://www.settimanasudoku.it/</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Luca Sprea is the founder of Sudoku</t>
-  </si>
-  <si>
     <t>Gaming</t>
+  </si>
+  <si>
+    <t>Suduko</t>
+  </si>
+  <si>
+    <t>TC01_Verification of Signup functionality of bizlia</t>
+  </si>
+  <si>
+    <t>TC01_Verification of Addresses tab Information under Company Profile page</t>
+  </si>
+  <si>
+    <t>Filling and saving all information under addresses Information Tab</t>
+  </si>
+  <si>
+    <t>OwnerInformationFullName</t>
+  </si>
+  <si>
+    <t>OwnerInformationTitle</t>
+  </si>
+  <si>
+    <t>OwnerInformationAddressOne</t>
+  </si>
+  <si>
+    <t>OwnerInformationAddressTwo</t>
+  </si>
+  <si>
+    <t>OwnerInformationCity</t>
+  </si>
+  <si>
+    <t>OwnerInformationState</t>
+  </si>
+  <si>
+    <t>OwnerInformationZipCode</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Pune  Maharashtra</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>TC01_Verification of company services tab under Company Profile page</t>
+  </si>
+  <si>
+    <t>Verification of company services tab under Company Profile page</t>
+  </si>
+  <si>
+    <t>Brief Description of Business</t>
+  </si>
+  <si>
+    <t>Primary NAICs Codes</t>
+  </si>
+  <si>
+    <t>Secondary NAICs Codes</t>
+  </si>
+  <si>
+    <t>BJP govt in Haryana loses majority as Dushyant Chautala’s JJP withdraws support; Congress leader Sam Pitroda resigns after the Congress distances itself from his controversial remarks; Rahul Gandhi responds to PM Modi’s remarks on Ambani, Adani asking him to get the ED and the CBI to investigate</t>
+  </si>
+  <si>
+    <t>Pharmaceutical and Medicine Manufacturing(3254)</t>
+  </si>
+  <si>
+    <t>Pharmaceutical and Medicine Manufacturing(325410)</t>
   </si>
 </sst>
 </file>
@@ -618,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,62 +719,62 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="8" t="str">
         <f ca="1">"velankaramruta"&amp;TEXT(NOW(),"ddmmyyyyhhss")&amp; "@gmail.com"</f>
-        <v>velankaramruta250420242058@gmail.com</v>
+        <v>velankaramruta090520241309@gmail.com</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -871,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E7800B-136C-426A-B692-6D713FBFA87D}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -909,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -921,22 +985,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -1100,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2992DB5-89B2-49AA-8EFD-8E31EAA5973C}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1139,69 +1203,69 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1359,6 +1423,355 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DE8EB6-5B14-4B74-B148-D142372B0DCA}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="63.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.54296875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="11">
+        <v>411014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B222A37A-B971-40C7-8AAC-C0DCB24879E9}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{B23B0F84-DA45-4548-B9A7-0181FBD8DC3A}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{51FA0731-C271-4390-95B8-3EE8640D6E34}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C77726-00B2-476E-BDE9-18DEF8A0EDAE}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="57.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="28.7265625" customWidth="1"/>
+    <col min="9" max="9" width="34.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{30D673C6-2E2C-409D-BB63-CD1B371DD85A}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{8AC544C0-B4DD-466B-A39C-0DF6935F5ECE}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{D24F9841-A005-41E8-A613-3AC9A10B45D5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>

--- a/target/test-classes/TestData/BizliaTestData.xlsx
+++ b/target/test-classes/TestData/BizliaTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A967C5-6CC5-402D-BEED-D6D150BF70DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B3E012-EC43-4F94-82E5-FC7C5D8FAEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIGNUP" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">HOME!$A$1:$BJ$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>TCName</t>
   </si>
@@ -213,19 +202,37 @@
     <t>Brief Description of Business</t>
   </si>
   <si>
-    <t>Primary NAICs Codes</t>
-  </si>
-  <si>
-    <t>Secondary NAICs Codes</t>
-  </si>
-  <si>
     <t>BJP govt in Haryana loses majority as Dushyant Chautala’s JJP withdraws support; Congress leader Sam Pitroda resigns after the Congress distances itself from his controversial remarks; Rahul Gandhi responds to PM Modi’s remarks on Ambani, Adani asking him to get the ED and the CBI to investigate</t>
   </si>
   <si>
     <t>Pharmaceutical and Medicine Manufacturing(3254)</t>
   </si>
   <si>
-    <t>Pharmaceutical and Medicine Manufacturing(325410)</t>
+    <t>Pharmaceutical and Medicine Manufacturing</t>
+  </si>
+  <si>
+    <t>Primary NAICs Text</t>
+  </si>
+  <si>
+    <t>Primary NAICs Text And Codes</t>
+  </si>
+  <si>
+    <t>Secondary NAICs Text</t>
+  </si>
+  <si>
+    <t>Secondary NAICs Text And Codes</t>
+  </si>
+  <si>
+    <t>Secondary NAICs Text 2</t>
+  </si>
+  <si>
+    <t>Secondary NAICs Text And Codes 2</t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry, Fishing and Hunting</t>
+  </si>
+  <si>
+    <t>Agriculture, Forestry, Fishing and Hunting(11)</t>
   </si>
 </sst>
 </file>
@@ -305,40 +312,40 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -360,9 +367,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -400,9 +407,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,26 +442,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,26 +477,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,23 +659,23 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.1796875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="63.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,7 +713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -762,7 +735,7 @@
       </c>
       <c r="H2" s="8" t="str">
         <f ca="1">"velankaramruta"&amp;TEXT(NOW(),"ddmmyyyyhhss")&amp; "@gmail.com"</f>
-        <v>velankaramruta090520241309@gmail.com</v>
+        <v>velankaramruta130520241640@gmail.com</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>17</v>
@@ -777,145 +750,145 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -939,24 +912,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.1796875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="63.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -983,7 +956,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1007,145 +980,145 @@
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1165,28 +1138,28 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.08984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.54296875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="63.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1268,145 +1241,145 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1430,25 +1403,25 @@
       <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.08984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.54296875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="63.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -1530,145 +1503,145 @@
         <v>411014</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1685,21 +1658,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C77726-00B2-476E-BDE9-18DEF8A0EDAE}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="28.7265625" customWidth="1"/>
-    <col min="9" max="9" width="34.90625" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47" customWidth="1"/>
+    <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.28515625" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1722,17 +1704,26 @@
         <v>58</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1752,13 +1743,25 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1776,20 +1779,20 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="63.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1810,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1820,145 +1823,145 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
